--- a/GATEWAY/S1#060000000000XX/INSIEL/APSYS/AXFR10.01.00/accreditamento-checklist_V8.2.6.xlsx
+++ b/GATEWAY/S1#060000000000XX/INSIEL/APSYS/AXFR10.01.00/accreditamento-checklist_V8.2.6.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RTR\ANATOMIA\CDA2\CDA2-Accreditamento\Test-Accreditamento\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\insiel\dati\Divisione Sanità\LB\Anatomia\ACCREDITAMENTOCDA2\Accreditamento_prima_prova\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8D7414-38C5-4467-B8AB-3757FC3EF628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1199BFAA-D9E9-4A5A-808F-8CDF7EE8F4CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-105" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="507">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -3990,10 +3990,10 @@
   <dimension ref="A1:W752"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="L148" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B163" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="O153" sqref="O153"/>
+      <selection pane="bottomRight" activeCell="G153" sqref="G153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9496,7 +9496,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="150" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:23" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="35">
         <v>419</v>
       </c>
@@ -9537,7 +9537,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="151" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:23" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="35">
         <v>423</v>
       </c>
@@ -9580,7 +9580,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="152" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:23" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="35">
         <v>424</v>
       </c>
@@ -9639,7 +9639,9 @@
       <c r="E153" s="43" t="s">
         <v>265</v>
       </c>
-      <c r="F153" s="37"/>
+      <c r="F153" s="37" t="s">
+        <v>472</v>
+      </c>
       <c r="G153" s="37"/>
       <c r="H153" s="37"/>
       <c r="I153" s="42"/>
@@ -9674,7 +9676,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="154" spans="1:23" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:23" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="35">
         <v>432</v>
       </c>
@@ -9876,7 +9878,9 @@
       </c>
       <c r="K157" s="38"/>
       <c r="L157" s="38"/>
-      <c r="M157" s="38"/>
+      <c r="M157" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="N157" s="38" t="s">
         <v>228</v>
       </c>
@@ -9937,7 +9941,9 @@
       </c>
       <c r="K158" s="38"/>
       <c r="L158" s="38"/>
-      <c r="M158" s="38"/>
+      <c r="M158" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="N158" s="38" t="s">
         <v>228</v>
       </c>
@@ -9998,7 +10004,9 @@
       </c>
       <c r="K159" s="38"/>
       <c r="L159" s="38"/>
-      <c r="M159" s="38"/>
+      <c r="M159" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="N159" s="38" t="s">
         <v>228</v>
       </c>
@@ -10059,7 +10067,9 @@
       </c>
       <c r="K160" s="38"/>
       <c r="L160" s="38"/>
-      <c r="M160" s="38"/>
+      <c r="M160" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="N160" s="38" t="s">
         <v>228</v>
       </c>
@@ -10120,7 +10130,9 @@
       </c>
       <c r="K161" s="38"/>
       <c r="L161" s="38"/>
-      <c r="M161" s="38"/>
+      <c r="M161" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="N161" s="38" t="s">
         <v>228</v>
       </c>
@@ -10181,7 +10193,9 @@
       </c>
       <c r="K162" s="38"/>
       <c r="L162" s="38"/>
-      <c r="M162" s="38"/>
+      <c r="M162" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="N162" s="38" t="s">
         <v>228</v>
       </c>
@@ -10242,7 +10256,9 @@
       </c>
       <c r="K163" s="38"/>
       <c r="L163" s="38"/>
-      <c r="M163" s="38"/>
+      <c r="M163" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="N163" s="38" t="s">
         <v>228</v>
       </c>
